--- a/data/trans_orig/P2A_fisi_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P2A_fisi_R-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>84915</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>69077</v>
+        <v>68531</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>103864</v>
+        <v>104052</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08230358565670977</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0669527968070108</v>
+        <v>0.06642400041370278</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1006705954369325</v>
+        <v>0.1008528580931213</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>121</v>
@@ -765,19 +765,19 @@
         <v>126403</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>105132</v>
+        <v>108038</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>149792</v>
+        <v>149059</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0961153971734106</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07994173945239053</v>
+        <v>0.0821514125903377</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1139006904181495</v>
+        <v>0.1133432651745399</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>208</v>
@@ -786,19 +786,19 @@
         <v>211317</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>183190</v>
+        <v>183996</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>238376</v>
+        <v>240968</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09004340722217487</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07805837055201088</v>
+        <v>0.07840161770649885</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1015732302832724</v>
+        <v>0.1026777517500708</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>946808</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>927859</v>
+        <v>927671</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>962646</v>
+        <v>963192</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9176964143432902</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8993294045630675</v>
+        <v>0.8991471419068787</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9330472031929892</v>
+        <v>0.9335759995862972</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1170</v>
@@ -836,19 +836,19 @@
         <v>1188710</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1165321</v>
+        <v>1166054</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1209981</v>
+        <v>1207075</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9038846028265894</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8860993095818505</v>
+        <v>0.8866567348254601</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9200582605476094</v>
+        <v>0.9178485874096624</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2121</v>
@@ -857,19 +857,19 @@
         <v>2135518</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2108459</v>
+        <v>2105867</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2163645</v>
+        <v>2162839</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9099565927778251</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.898426769716728</v>
+        <v>0.8973222482499292</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9219416294479897</v>
+        <v>0.9215983822935011</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>63373</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>48309</v>
+        <v>49709</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>82165</v>
+        <v>80551</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03742299705154527</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02852783530876616</v>
+        <v>0.02935431599383114</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04852014025213868</v>
+        <v>0.04756738119403744</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>58</v>
@@ -982,19 +982,19 @@
         <v>62092</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>47857</v>
+        <v>48475</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>80198</v>
+        <v>81047</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03910885363511212</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03014280971280126</v>
+        <v>0.03053217302248044</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05051295052745441</v>
+        <v>0.0510476991260058</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>120</v>
@@ -1003,19 +1003,19 @@
         <v>125465</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>106085</v>
+        <v>103391</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>149556</v>
+        <v>148041</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03823876030381929</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03233227241364334</v>
+        <v>0.03151131576148641</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04558133713413796</v>
+        <v>0.04511960785239223</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1630040</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1611248</v>
+        <v>1612862</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1645104</v>
+        <v>1643704</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9625770029484547</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9514798597478616</v>
+        <v>0.9524326188059627</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9714721646912344</v>
+        <v>0.9706456840061689</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1496</v>
@@ -1053,19 +1053,19 @@
         <v>1525581</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1507475</v>
+        <v>1506626</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1539816</v>
+        <v>1539198</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9608911463648879</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9494870494725456</v>
+        <v>0.9489523008739943</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9698571902871987</v>
+        <v>0.9694678269775195</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3083</v>
@@ -1074,19 +1074,19 @@
         <v>3155621</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3131530</v>
+        <v>3133045</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3175001</v>
+        <v>3177695</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9617612396961808</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9544186628658619</v>
+        <v>0.9548803921476078</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9676677275863567</v>
+        <v>0.968488684238514</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>15324</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8500</v>
+        <v>8674</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26042</v>
+        <v>26069</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02779003805774261</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01541494555083586</v>
+        <v>0.01573062816036706</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04722738829648621</v>
+        <v>0.04727792595993878</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -1199,19 +1199,19 @@
         <v>23035</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14416</v>
+        <v>14522</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33804</v>
+        <v>33705</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04835050243486196</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03025867792429024</v>
+        <v>0.03048152192543003</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07095465123130164</v>
+        <v>0.07074697726570971</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>34</v>
@@ -1220,19 +1220,19 @@
         <v>38358</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>27460</v>
+        <v>26420</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>54396</v>
+        <v>53385</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03732015866271952</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02671717610774009</v>
+        <v>0.02570452988614131</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05292386750912659</v>
+        <v>0.05193965615537412</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>536084</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>525366</v>
+        <v>525339</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>542908</v>
+        <v>542734</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9722099619422574</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9527726117035141</v>
+        <v>0.9527220740400612</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9845850544491644</v>
+        <v>0.9842693718396328</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>431</v>
@@ -1270,19 +1270,19 @@
         <v>453377</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>442608</v>
+        <v>442707</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>461996</v>
+        <v>461890</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9516494975651381</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9290453487686984</v>
+        <v>0.9292530227342902</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9697413220757097</v>
+        <v>0.9695184780745699</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>945</v>
@@ -1291,19 +1291,19 @@
         <v>989462</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>973424</v>
+        <v>974435</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1000360</v>
+        <v>1001400</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9626798413372805</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9470761324908729</v>
+        <v>0.9480603438446259</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9732828238922596</v>
+        <v>0.9742954701138586</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>163611</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>140406</v>
+        <v>140158</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>188371</v>
+        <v>191449</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04993393741010657</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04285200873922652</v>
+        <v>0.04277616800071952</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05749074562967509</v>
+        <v>0.05843018412780338</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>200</v>
@@ -1416,19 +1416,19 @@
         <v>211529</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>184643</v>
+        <v>184997</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>240916</v>
+        <v>241382</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06259752466297842</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05464096204607682</v>
+        <v>0.05474596447383961</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07129388954889423</v>
+        <v>0.07143190253277287</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>362</v>
@@ -1437,19 +1437,19 @@
         <v>375140</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>339175</v>
+        <v>342030</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>414130</v>
+        <v>414314</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05636338866745972</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05095976112769389</v>
+        <v>0.05138876134609212</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06222152767841781</v>
+        <v>0.06224914621784765</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>3112932</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3088172</v>
+        <v>3085094</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3136137</v>
+        <v>3136385</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9500660625898935</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.942509254370325</v>
+        <v>0.9415698158721966</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9571479912607735</v>
+        <v>0.9572238319992804</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3097</v>
@@ -1487,19 +1487,19 @@
         <v>3167668</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3138281</v>
+        <v>3137815</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3194554</v>
+        <v>3194200</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9374024753370216</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9287061104511061</v>
+        <v>0.9285680974672272</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9453590379539233</v>
+        <v>0.9452540355261605</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6149</v>
@@ -1508,19 +1508,19 @@
         <v>6280601</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6241611</v>
+        <v>6241427</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6316566</v>
+        <v>6313711</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9436366113325403</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9377784723215822</v>
+        <v>0.9377508537821524</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.949040238872306</v>
+        <v>0.9486112386539078</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>126814</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>105526</v>
+        <v>107475</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>150098</v>
+        <v>150681</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1301128666934419</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1082714564719306</v>
+        <v>0.1102713607020151</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1540035393065393</v>
+        <v>0.1546011235570472</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>163</v>
@@ -1872,19 +1872,19 @@
         <v>174949</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>149720</v>
+        <v>149484</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>200596</v>
+        <v>200831</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.130773580698289</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1119153284065413</v>
+        <v>0.1117386211418243</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1499449949320516</v>
+        <v>0.1501210047085864</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>275</v>
@@ -1893,19 +1893,19 @@
         <v>301762</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>270384</v>
+        <v>267458</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>337238</v>
+        <v>334159</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.130495104106393</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1169259505762275</v>
+        <v>0.1156607141943183</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1458366233734755</v>
+        <v>0.144505051410998</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>847829</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>824545</v>
+        <v>823962</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>869117</v>
+        <v>867168</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8698871333065581</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8459964606934613</v>
+        <v>0.845398876442953</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8917285435280703</v>
+        <v>0.8897286392979858</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1084</v>
@@ -1943,19 +1943,19 @@
         <v>1162848</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1137201</v>
+        <v>1136966</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1188077</v>
+        <v>1188313</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8692264193017111</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8500550050679496</v>
+        <v>0.8498789952914138</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8880846715934586</v>
+        <v>0.8882613788581758</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1880</v>
@@ -1964,19 +1964,19 @@
         <v>2010678</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1975202</v>
+        <v>1978281</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2042056</v>
+        <v>2044982</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.869504895893607</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8541633766265245</v>
+        <v>0.855494948589002</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8830740494237724</v>
+        <v>0.8843392858056817</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>104173</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>84625</v>
+        <v>85377</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>128091</v>
+        <v>127373</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05304253072073906</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04308889361510159</v>
+        <v>0.04347179449798731</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06522066995910741</v>
+        <v>0.06485533529616903</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>113</v>
@@ -2089,19 +2089,19 @@
         <v>125647</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>104659</v>
+        <v>104230</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>150700</v>
+        <v>147651</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07147932068430315</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05953959096612631</v>
+        <v>0.05929553562898437</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08573174807536556</v>
+        <v>0.08399764067072697</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>211</v>
@@ -2110,19 +2110,19 @@
         <v>229820</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>201589</v>
+        <v>197355</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>262372</v>
+        <v>260783</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06175030281150858</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05416493388948188</v>
+        <v>0.05302739454031817</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07049677573074042</v>
+        <v>0.07006987795908409</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1859784</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1835866</v>
+        <v>1836584</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1879332</v>
+        <v>1878580</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9469574692792609</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9347793300408923</v>
+        <v>0.9351446647038306</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9569111063848977</v>
+        <v>0.9565282055020127</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1522</v>
@@ -2160,19 +2160,19 @@
         <v>1632156</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1607103</v>
+        <v>1610152</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1653144</v>
+        <v>1653573</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9285206793156968</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9142682519246346</v>
+        <v>0.916002359329273</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9404604090338738</v>
+        <v>0.9407044643710156</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3280</v>
@@ -2181,19 +2181,19 @@
         <v>3491940</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3459388</v>
+        <v>3460977</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3520171</v>
+        <v>3524405</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9382496971884914</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9295032242692595</v>
+        <v>0.929930122040916</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.945835066110518</v>
+        <v>0.9469726054596821</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>18791</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10843</v>
+        <v>11253</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30107</v>
+        <v>30692</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03905098870871659</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02253363545403233</v>
+        <v>0.02338547698252645</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06256868436611414</v>
+        <v>0.06378561554608174</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -2306,19 +2306,19 @@
         <v>22758</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15402</v>
+        <v>14440</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>35627</v>
+        <v>34828</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04962211486022622</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03358312540902294</v>
+        <v>0.03148598212709058</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07768064067433945</v>
+        <v>0.07593948476686124</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>36</v>
@@ -2327,19 +2327,19 @@
         <v>41549</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>28630</v>
+        <v>29994</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>55658</v>
+        <v>58857</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04420972723778702</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03046349086487975</v>
+        <v>0.03191490046277429</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05922207889676646</v>
+        <v>0.06262609519591492</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>462390</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>451074</v>
+        <v>450489</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>470338</v>
+        <v>469928</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9609490112912834</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9374313156338859</v>
+        <v>0.9362143844539182</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9774663645459677</v>
+        <v>0.9766145230174735</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>392</v>
@@ -2377,19 +2377,19 @@
         <v>435873</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>423004</v>
+        <v>423803</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>443229</v>
+        <v>444191</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9503778851397738</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9223193593256606</v>
+        <v>0.9240605152331389</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9664168745909771</v>
+        <v>0.9685140178729096</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>814</v>
@@ -2398,19 +2398,19 @@
         <v>898264</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>884155</v>
+        <v>880956</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>911183</v>
+        <v>909819</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.955790272762213</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9407779211032332</v>
+        <v>0.9373739048040853</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9695365091351202</v>
+        <v>0.9680850995372258</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>249777</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>218550</v>
+        <v>219966</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>281409</v>
+        <v>286040</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07303900913900875</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06390755486284058</v>
+        <v>0.06432166853591768</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08228852343801298</v>
+        <v>0.08364275877590392</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>296</v>
@@ -2523,19 +2523,19 @@
         <v>323353</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>291606</v>
+        <v>290033</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>364441</v>
+        <v>364080</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09097700556770875</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08204469018608793</v>
+        <v>0.08160219076949297</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1025373892373634</v>
+        <v>0.1024357512438513</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>522</v>
@@ -2544,19 +2544,19 @@
         <v>573131</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>528423</v>
+        <v>526540</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>622635</v>
+        <v>622852</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08218091611611744</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07577028976758293</v>
+        <v>0.07550028799944875</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08927926015577921</v>
+        <v>0.08931047262279164</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>3170005</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3138373</v>
+        <v>3133742</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3201232</v>
+        <v>3199816</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9269609908609913</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9177114765619869</v>
+        <v>0.916357241224096</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9360924451371592</v>
+        <v>0.9356783314640821</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2998</v>
@@ -2594,19 +2594,19 @@
         <v>3230877</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3189789</v>
+        <v>3190150</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3262624</v>
+        <v>3264197</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9090229944322913</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8974626107626366</v>
+        <v>0.8975642487561487</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.917955309813912</v>
+        <v>0.918397809230507</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5974</v>
@@ -2615,19 +2615,19 @@
         <v>6400881</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6351377</v>
+        <v>6351160</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6445589</v>
+        <v>6447472</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9178190838838826</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9107207398442209</v>
+        <v>0.9106895273772085</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9242297102324171</v>
+        <v>0.9244997120005514</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>63457</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>49702</v>
+        <v>50045</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>79307</v>
+        <v>79981</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08412187392477516</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06588769296212213</v>
+        <v>0.06634275839069838</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1051338910702742</v>
+        <v>0.1060264728002796</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>110</v>
@@ -2979,19 +2979,19 @@
         <v>128524</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>107771</v>
+        <v>106309</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>154319</v>
+        <v>152630</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1292138188948272</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1083496705457311</v>
+        <v>0.1068801457627869</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1551475017834775</v>
+        <v>0.1534492837934958</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>174</v>
@@ -3000,19 +3000,19 @@
         <v>191981</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>167068</v>
+        <v>164998</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>220051</v>
+        <v>219327</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1097656609661063</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09552164529013119</v>
+        <v>0.09433806387232907</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1258146547992266</v>
+        <v>0.1254006926086333</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>690890</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>675040</v>
+        <v>674366</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>704645</v>
+        <v>704302</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9158781260752248</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8948661089297258</v>
+        <v>0.8939735271997205</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9341123070378778</v>
+        <v>0.9336572416093016</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>782</v>
@@ -3050,19 +3050,19 @@
         <v>866136</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>840341</v>
+        <v>842030</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>886889</v>
+        <v>888351</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8707861811051728</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8448524982165226</v>
+        <v>0.8465507162065042</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8916503294542689</v>
+        <v>0.8931198542372131</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1480</v>
@@ -3071,19 +3071,19 @@
         <v>1557026</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1528956</v>
+        <v>1529680</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1581939</v>
+        <v>1584009</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8902343390338937</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8741853452007731</v>
+        <v>0.8745993073913667</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9044783547098687</v>
+        <v>0.9056619361276705</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>104308</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>85915</v>
+        <v>85561</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>127833</v>
+        <v>128354</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05023561277974808</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04137730470318209</v>
+        <v>0.04120690099271936</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06156528303270868</v>
+        <v>0.06181613560457484</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>86</v>
@@ -3196,19 +3196,19 @@
         <v>93349</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>75815</v>
+        <v>75690</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>117239</v>
+        <v>114445</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04694895839757641</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03813058667856979</v>
+        <v>0.03806782848920042</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05896467513299246</v>
+        <v>0.05755900017117514</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>182</v>
@@ -3217,19 +3217,19 @@
         <v>197657</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>169699</v>
+        <v>169026</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>225404</v>
+        <v>227112</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04862789777296388</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04174948743047973</v>
+        <v>0.04158411013037455</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05545420604026206</v>
+        <v>0.05587454341716128</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1972077</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1948552</v>
+        <v>1948031</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1990470</v>
+        <v>1990824</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9497643872202519</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9384347169672916</v>
+        <v>0.938183864395425</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.958622695296818</v>
+        <v>0.9587930990072806</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1822</v>
@@ -3267,19 +3267,19 @@
         <v>1894951</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1871061</v>
+        <v>1873855</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1912485</v>
+        <v>1912610</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9530510416024236</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9410353248670076</v>
+        <v>0.9424409998288249</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9618694133214303</v>
+        <v>0.9619321715107996</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3678</v>
@@ -3288,19 +3288,19 @@
         <v>3867028</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3839281</v>
+        <v>3837573</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3894986</v>
+        <v>3895659</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9513721022270362</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9445457939597377</v>
+        <v>0.9441254565828393</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.95825051256952</v>
+        <v>0.9584158898696257</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>19643</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11686</v>
+        <v>11521</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29496</v>
+        <v>29985</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03591707403492456</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02136801735545174</v>
+        <v>0.02106626341303874</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05393496609363178</v>
+        <v>0.05482880025929411</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -3413,19 +3413,19 @@
         <v>21811</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13431</v>
+        <v>13880</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32625</v>
+        <v>33833</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03971859695651316</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02445912609379733</v>
+        <v>0.02527569880252043</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05941166583881187</v>
+        <v>0.0616105269205668</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>38</v>
@@ -3434,19 +3434,19 @@
         <v>41454</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>29286</v>
+        <v>30312</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>55806</v>
+        <v>57290</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03782174469705924</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02671969263099779</v>
+        <v>0.02765596951747362</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05091651349114525</v>
+        <v>0.05227090607039748</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>527243</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>517390</v>
+        <v>516901</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>535200</v>
+        <v>535365</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9640829259650755</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9460650339063681</v>
+        <v>0.9451711997407064</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9786319826445482</v>
+        <v>0.9789337365869614</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>506</v>
@@ -3484,19 +3484,19 @@
         <v>527329</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>516515</v>
+        <v>515307</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>535709</v>
+        <v>535260</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9602814030434869</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9405883341611881</v>
+        <v>0.9383894730794332</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9755408739062033</v>
+        <v>0.9747243011974797</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>989</v>
@@ -3505,19 +3505,19 @@
         <v>1054573</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1040221</v>
+        <v>1038737</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1066741</v>
+        <v>1065715</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9621782553029408</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9490834865088548</v>
+        <v>0.9477290939296024</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9732803073690023</v>
+        <v>0.9723440304825263</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>187408</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>164324</v>
+        <v>160800</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>218022</v>
+        <v>215931</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05548528307639253</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0486508149780735</v>
+        <v>0.04760765240650927</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06454895515385708</v>
+        <v>0.06392997061775707</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>216</v>
@@ -3630,19 +3630,19 @@
         <v>243684</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>214190</v>
+        <v>214448</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>278554</v>
+        <v>280034</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06899111055395732</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06064111908654533</v>
+        <v>0.06071393450467284</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07886343491743375</v>
+        <v>0.07928257826822235</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>394</v>
@@ -3651,19 +3651,19 @@
         <v>431092</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>392166</v>
+        <v>394165</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>477677</v>
+        <v>472045</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06238917372861646</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05675565431120644</v>
+        <v>0.057045009385402</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06913118356333336</v>
+        <v>0.06831609304837283</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>3190210</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3159596</v>
+        <v>3161687</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3213294</v>
+        <v>3216818</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9445147169236074</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9354510448461429</v>
+        <v>0.9360700293822429</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9513491850219264</v>
+        <v>0.9523923475934907</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3110</v>
@@ -3701,19 +3701,19 @@
         <v>3288416</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3253546</v>
+        <v>3252066</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3317910</v>
+        <v>3317652</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9310088894460427</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.921136565082566</v>
+        <v>0.9207174217317776</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9393588809134545</v>
+        <v>0.9392860654953271</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6147</v>
@@ -3722,19 +3722,19 @@
         <v>6478626</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6432041</v>
+        <v>6437673</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6517552</v>
+        <v>6515553</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9376108262713836</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9308688164366666</v>
+        <v>0.9316839069516272</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9432443456887935</v>
+        <v>0.942954990614598</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>123049</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>105867</v>
+        <v>107958</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>140280</v>
+        <v>144044</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2126925270524888</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1829930030882408</v>
+        <v>0.1866080209502435</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.242477308195971</v>
+        <v>0.2489832451330947</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>347</v>
@@ -4086,19 +4086,19 @@
         <v>194599</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>176050</v>
+        <v>177199</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>214607</v>
+        <v>214084</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.236727947724991</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2141632024924327</v>
+        <v>0.215560420531265</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2610667069756082</v>
+        <v>0.26043121209452</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>511</v>
@@ -4107,19 +4107,19 @@
         <v>317648</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>292326</v>
+        <v>293396</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>344065</v>
+        <v>343498</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2267996864776672</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2087194966872846</v>
+        <v>0.2094840853606585</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2456613399655369</v>
+        <v>0.2452561133956617</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>455480</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>438249</v>
+        <v>434485</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>472662</v>
+        <v>470571</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7873074729475114</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7575226918040289</v>
+        <v>0.7510167548669051</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.817006996911759</v>
+        <v>0.8133919790497561</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1080</v>
@@ -4157,19 +4157,19 @@
         <v>627439</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>607431</v>
+        <v>607954</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>645988</v>
+        <v>644839</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7632720522750089</v>
+        <v>0.7632720522750092</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7389332930243914</v>
+        <v>0.7395687879054803</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7858367975075672</v>
+        <v>0.7844395794687349</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1607</v>
@@ -4178,19 +4178,19 @@
         <v>1082919</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1056502</v>
+        <v>1057069</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1108241</v>
+        <v>1107171</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7732003135223328</v>
+        <v>0.7732003135223326</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7543386600344634</v>
+        <v>0.7547438866043377</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7912805033127154</v>
+        <v>0.7905159146393413</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>211159</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>183213</v>
+        <v>184612</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>242020</v>
+        <v>242050</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09466588713870695</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08213736550444153</v>
+        <v>0.08276463918523254</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1085017071395514</v>
+        <v>0.1085151692536929</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>279</v>
@@ -4303,19 +4303,19 @@
         <v>192035</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>170254</v>
+        <v>169221</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>215198</v>
+        <v>217257</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.08843884683261602</v>
+        <v>0.08843884683261601</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07840753868090737</v>
+        <v>0.07793220935320919</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09910598653100462</v>
+        <v>0.1000542427447786</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>492</v>
@@ -4324,19 +4324,19 @@
         <v>403194</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>366651</v>
+        <v>365582</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>441259</v>
+        <v>443154</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09159422111340786</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08329262945275646</v>
+        <v>0.0830499132707313</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1002415779041689</v>
+        <v>0.1006719555662385</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>2019407</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1988546</v>
+        <v>1988516</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2047353</v>
+        <v>2045954</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9053341128612931</v>
+        <v>0.9053341128612932</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8914982928604485</v>
+        <v>0.8914848307463069</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9178626344955584</v>
+        <v>0.9172353608147672</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2642</v>
@@ -4374,19 +4374,19 @@
         <v>1979357</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1956194</v>
+        <v>1954135</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2001138</v>
+        <v>2002171</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9115611531673841</v>
+        <v>0.9115611531673838</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9008940134689954</v>
+        <v>0.8999457572552212</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9215924613190929</v>
+        <v>0.9220677906467903</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4421</v>
@@ -4395,19 +4395,19 @@
         <v>3998765</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3960700</v>
+        <v>3958805</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4035308</v>
+        <v>4036377</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9084057788865921</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8997584220958311</v>
+        <v>0.8993280444337616</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9167073705472435</v>
+        <v>0.9169500867292685</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>49468</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>35642</v>
+        <v>34351</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>68166</v>
+        <v>66505</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.06951796840600553</v>
+        <v>0.06951796840600552</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05008781982418015</v>
+        <v>0.04827386193106882</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09579426432371663</v>
+        <v>0.09345947565178912</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>57</v>
@@ -4520,19 +4520,19 @@
         <v>40112</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30554</v>
+        <v>30910</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>52105</v>
+        <v>51763</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05458354250819862</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04157749256537526</v>
+        <v>0.04206087094487262</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07090243048032194</v>
+        <v>0.07043808533071892</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>102</v>
@@ -4541,19 +4541,19 @@
         <v>89580</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>71145</v>
+        <v>72891</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>110202</v>
+        <v>110235</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06193052210363587</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04918530420465637</v>
+        <v>0.05039256529932063</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07618697649157706</v>
+        <v>0.07620972480398643</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>662119</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>643421</v>
+        <v>645082</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>675945</v>
+        <v>677236</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9304820315939945</v>
+        <v>0.9304820315939943</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9042057356762828</v>
+        <v>0.9065405243482113</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9499121801758198</v>
+        <v>0.9517261380689312</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>947</v>
@@ -4591,19 +4591,19 @@
         <v>694765</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>682772</v>
+        <v>683114</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>704323</v>
+        <v>703967</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9454164574918011</v>
+        <v>0.9454164574918014</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.929097569519678</v>
+        <v>0.929561914669281</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9584225074346248</v>
+        <v>0.9579391290551282</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1583</v>
@@ -4612,19 +4612,19 @@
         <v>1356884</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1336262</v>
+        <v>1336229</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1375319</v>
+        <v>1373573</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9380694778963644</v>
+        <v>0.9380694778963641</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.923813023508423</v>
+        <v>0.9237902751960133</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9508146957953438</v>
+        <v>0.9496074347006793</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>383676</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>346351</v>
+        <v>346459</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>422528</v>
+        <v>421197</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1089775854388911</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09837617025889324</v>
+        <v>0.09840668233158342</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1200130957390511</v>
+        <v>0.1196351133564743</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>683</v>
@@ -4737,19 +4737,19 @@
         <v>426747</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>395586</v>
+        <v>394573</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>458686</v>
+        <v>465862</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1144613162180385</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1061035152674592</v>
+        <v>0.1058317103786018</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1230278506670783</v>
+        <v>0.1249526061655038</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1105</v>
@@ -4758,19 +4758,19 @@
         <v>810422</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>762032</v>
+        <v>763447</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>861386</v>
+        <v>859270</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1117979829233448</v>
+        <v>0.1117979829233449</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1051224752907946</v>
+        <v>0.1053177393668284</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1188283607831166</v>
+        <v>0.1185365200355543</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>3137007</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3098155</v>
+        <v>3099486</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3174332</v>
+        <v>3174224</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.891022414561109</v>
+        <v>0.8910224145611091</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8799869042609494</v>
+        <v>0.8803648866435253</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9016238297411067</v>
+        <v>0.9015933176684162</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4669</v>
@@ -4808,19 +4808,19 @@
         <v>3301560</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3269621</v>
+        <v>3262445</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3332721</v>
+        <v>3333734</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8855386837819614</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8769721493329217</v>
+        <v>0.8750473938344974</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8938964847325407</v>
+        <v>0.8941682896213986</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7611</v>
@@ -4829,19 +4829,19 @@
         <v>6438568</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6387604</v>
+        <v>6389720</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6486958</v>
+        <v>6485543</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.888202017076655</v>
+        <v>0.8882020170766551</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.881171639216883</v>
+        <v>0.8814634799644459</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8948775247092055</v>
+        <v>0.8946822606331719</v>
       </c>
     </row>
     <row r="15">
